--- a/what-are-dynamic-arrays-demo.xlsx
+++ b/what-are-dynamic-arrays-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE5199B4-4464-4638-AF71-F986FBD989E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609173DD-942D-408F-A8DE-276BBC898661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Array:</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Unique winners</t>
+  </si>
+  <si>
+    <t>Unique winners (static array)</t>
   </si>
 </sst>
 </file>
@@ -496,18 +499,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886B6D4A-372A-44D5-9850-365A4A804FBA}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="2.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -525,18 +526,12 @@
       <c r="C2">
         <v>7</v>
       </c>
-      <c r="E2" cm="1">
-        <f t="array" ref="E2:G2">A2:C2</f>
+      <c r="E2">
+        <f t="array" ref="E2">A2:C2</f>
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -548,10 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3CD22-BB7B-4305-9639-39B459C0453E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -559,10 +554,12 @@
     <col min="1" max="1" width="6.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.53125" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="8" width="4.53125" customWidth="1"/>
+    <col min="9" max="9" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -572,21 +569,28 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="str">
-        <f t="array" ref="D2">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D1, series_winners[winner]),0))</f>
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2:D10">_xlfn.UNIQUE(series_winners[winner])</f>
         <v>Houston Astros</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I2" t="str">
+        <f t="array" ref="I2">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I1, series_winners[winner]),0))</f>
+        <v>Houston Astros</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -594,12 +598,15 @@
         <v>6</v>
       </c>
       <c r="D3" t="str">
-        <f t="array" ref="D3">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D2, series_winners[winner]),0))</f>
         <v>Atlanta Braves</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I3" t="str">
+        <f t="array" ref="I3">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I2, series_winners[winner]),0))</f>
+        <v>Atlanta Braves</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -607,12 +614,15 @@
         <v>7</v>
       </c>
       <c r="D4" t="str">
-        <f t="array" ref="D4">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D3, series_winners[winner]),0))</f>
         <v>Los Angeles Dodgers</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I4" t="str">
+        <f t="array" ref="I4">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I3, series_winners[winner]),0))</f>
+        <v>Los Angeles Dodgers</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -620,12 +630,15 @@
         <v>8</v>
       </c>
       <c r="D5" t="str">
-        <f t="array" ref="D5">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D4, series_winners[winner]),0))</f>
         <v>Washington Nationals</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I5" t="str">
+        <f t="array" ref="I5">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I4, series_winners[winner]),0))</f>
+        <v>Washington Nationals</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -633,12 +646,15 @@
         <v>9</v>
       </c>
       <c r="D6" t="str">
-        <f t="array" ref="D6">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D5, series_winners[winner]),0))</f>
         <v>Boston Red Sox</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I6" t="str">
+        <f t="array" ref="I6">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I5, series_winners[winner]),0))</f>
+        <v>Boston Red Sox</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -646,12 +662,15 @@
         <v>5</v>
       </c>
       <c r="D7" t="str">
-        <f t="array" ref="D7">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D6, series_winners[winner]),0))</f>
         <v>Chicago Cubs</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I7" t="str">
+        <f t="array" ref="I7">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I6, series_winners[winner]),0))</f>
+        <v>Chicago Cubs</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -659,12 +678,15 @@
         <v>10</v>
       </c>
       <c r="D8" t="str">
-        <f t="array" ref="D8">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D7, series_winners[winner]),0))</f>
         <v>Kansas City Royals</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I8" t="str">
+        <f t="array" ref="I8">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I7, series_winners[winner]),0))</f>
+        <v>Kansas City Royals</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -672,12 +694,15 @@
         <v>11</v>
       </c>
       <c r="D9" t="str">
-        <f t="array" ref="D9">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D8, series_winners[winner]),0))</f>
         <v>San Francisco Giants</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I9" t="str">
+        <f t="array" ref="I9">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I8, series_winners[winner]),0))</f>
+        <v>San Francisco Giants</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -685,51 +710,54 @@
         <v>12</v>
       </c>
       <c r="D10" t="str">
-        <f t="array" ref="D10">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D9, series_winners[winner]),0))</f>
         <v>St. Louis Cardinals</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I10" t="str">
+        <f t="array" ref="I10">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I9, series_winners[winner]),0))</f>
+        <v>St. Louis Cardinals</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2013</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="e">
-        <f t="array" ref="D11">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D10, series_winners[winner]),0))</f>
+      <c r="I11" t="e">
+        <f t="array" ref="I11">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I10, series_winners[winner]),0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2012</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="e">
-        <f t="array" ref="D12">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D11, series_winners[winner]),0))</f>
+      <c r="I12" t="e">
+        <f t="array" ref="I12">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I11, series_winners[winner]),0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="e">
-        <f t="array" ref="D13">INDEX(series_winners[winner],
-MATCH(0, COUNTIF($D$1:D12, series_winners[winner]),0))</f>
+      <c r="I13" t="e">
+        <f t="array" ref="I13">INDEX(series_winners[winner],
+MATCH(0, COUNTIF($I$1:I12, series_winners[winner]),0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2010</v>
       </c>
